--- a/ExcelToJsonWizard.v1.0.6/excel_files/Enum.xlsx
+++ b/ExcelToJsonWizard.v1.0.6/excel_files/Enum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS\UNITY_PROJECTS\IdleHero\ExcelToJsonWizard.v1.0.6\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16955036-5DEE-4FBB-8DD2-2B8CDE41A00E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F26666F-164D-49C3-B301-656F25736675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30600" yWindow="3690" windowWidth="20310" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22545" yWindow="3735" windowWidth="23670" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -440,7 +440,7 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:J5"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -488,6 +488,7 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="5"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E2" s="1"/>

--- a/ExcelToJsonWizard.v1.0.6/excel_files/Enum.xlsx
+++ b/ExcelToJsonWizard.v1.0.6/excel_files/Enum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS\UNITY_PROJECTS\IdleHero\ExcelToJsonWizard.v1.0.6\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F26666F-164D-49C3-B301-656F25736675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA01F6F-F7C8-4E40-94F3-6320A08D5952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22545" yWindow="3735" windowWidth="23670" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,10 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>Stat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Damage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -54,10 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ManaRecoveryRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HealthRecoveryRate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -79,6 +71,14 @@
   </si>
   <si>
     <t>CriticalHitRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxHealth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EStat</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -440,7 +440,7 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -456,39 +456,39 @@
   <sheetData>
     <row r="1" spans="1:19" ht="33" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>5</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E2" s="1"/>
